--- a/olap/Книга1.xlsx
+++ b/olap/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\olap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\pt-olap\olap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="97" r:id="rId2"/>
+    <pivotCache cacheId="145" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,35 +28,86 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\KID\Documents\Мои источники данных\localhost ssas-pt-olap OLAP DATA Dev.odc" keepAlive="1" name="localhost ssas-pt-olap OLAP DATA Dev" type="5" refreshedVersion="5" background="1">
-    <dbPr connection="Provider=MSOLAP.7;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas-pt-olap;Data Source=localhost;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="OLAP DATA Dev" commandType="1"/>
+  <connection id="1" odcFile="C:\Users\KID\Documents\Мои источники данных\. ssas-pt-olap OLAP DATA.odc" keepAlive="1" name=". ssas-pt-olap OLAP DATA" type="5" refreshedVersion="5" background="1">
+    <dbPr connection="Provider=MSOLAP.7;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas-pt-olap;Data Source=.;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="OLAP DATA" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Amount Order</t>
-  </si>
-  <si>
-    <t>Amount Sale</t>
-  </si>
-  <si>
-    <t>Quantity Order</t>
-  </si>
-  <si>
-    <t>Quantity Sale</t>
-  </si>
-  <si>
-    <t>Sales Fact Count</t>
-  </si>
-  <si>
-    <t>Quantity Stock</t>
-  </si>
-  <si>
-    <t>Stock Fact Count</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Владимирский тракт</t>
+  </si>
+  <si>
+    <t>Горбушкин Двор</t>
+  </si>
+  <si>
+    <t>Горбушкин Двор 004</t>
+  </si>
+  <si>
+    <t>ИМ "Премьер-Техно"</t>
+  </si>
+  <si>
+    <t>МВ-Горбушка</t>
+  </si>
+  <si>
+    <t>Румянцево</t>
+  </si>
+  <si>
+    <t>Черемушки</t>
+  </si>
+  <si>
+    <t>Электроника на Пресне</t>
+  </si>
+  <si>
+    <t>Электронный рай</t>
+  </si>
+  <si>
+    <t>Электронный рай 33-7</t>
+  </si>
+  <si>
+    <t>Кол-во заказа</t>
+  </si>
+  <si>
+    <t>2016 Итог</t>
   </si>
 </sst>
 </file>
@@ -93,9 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -114,94 +169,140 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="KID" refreshedDate="42622.933232291667" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="KID" refreshedDate="42624.990403009258" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="7">
-    <cacheField name="[Measures].[Quantity Stock]" caption="Quantity Stock" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Measures].[Stock Fact Count]" caption="Stock Fact Count" numFmtId="0" hierarchy="27" level="32767"/>
-    <cacheField name="[Measures].[Sales Fact Count]" caption="Sales Fact Count" numFmtId="0" hierarchy="25" level="32767"/>
-    <cacheField name="[Measures].[Quantity Sale]" caption="Quantity Sale" numFmtId="0" hierarchy="21" level="32767"/>
-    <cacheField name="[Measures].[Quantity Order]" caption="Quantity Order" numFmtId="0" hierarchy="23" level="32767"/>
-    <cacheField name="[Measures].[Amount Sale]" caption="Amount Sale" numFmtId="0" hierarchy="22" level="32767"/>
-    <cacheField name="[Measures].[Amount Order]" caption="Amount Order" numFmtId="0" hierarchy="24" level="32767"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Кол-во заказа]" caption="Кол-во заказа" numFmtId="0" hierarchy="23" level="32767"/>
+    <cacheField name="[Подразделения].[Подразделение].[Подразделение]" caption="Подразделение" numFmtId="0" hierarchy="9" level="1">
+      <sharedItems count="10">
+        <s v="[Подразделения].[Подразделение].&amp;[Владимирский тракт]" c="Владимирский тракт"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Горбушкин Двор]" c="Горбушкин Двор"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Горбушкин Двор 004]" c="Горбушкин Двор 004"/>
+        <s v="[Подразделения].[Подразделение].&amp;[ИМ &quot;Премьер-Техно&quot;]" c="ИМ &quot;Премьер-Техно&quot;"/>
+        <s v="[Подразделения].[Подразделение].&amp;[МВ-Горбушка]" c="МВ-Горбушка"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Румянцево]" c="Румянцево"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Черемушки]" c="Черемушки"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Электроника на Пресне]" c="Электроника на Пресне"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Электронный рай]" c="Электронный рай"/>
+        <s v="[Подразделения].[Подразделение].&amp;[Электронный рай 33-7]" c="Электронный рай 33-7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Year]" caption="Year" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="1">
+        <s v="[Время].[Hierarchy].[Year].&amp;[2016]" c="2016"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Month]" caption="Month" numFmtId="0" hierarchy="4" level="2" mappingCount="1">
+      <sharedItems count="8">
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-01]" c="Январь" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-02]" c="Февраль" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-03]" c="Март" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-04]" c="Апрель" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-05]" c="Май" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-06]" c="Июнь" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-07]" c="Июль" cp="1">
+          <x/>
+        </s>
+        <s v="[Время].[Hierarchy].[Month].&amp;[2016-08]" c="Август" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Week]" caption="Week" numFmtId="0" hierarchy="4" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Date]" caption="Date" numFmtId="0" hierarchy="4" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Month].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="4" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2016" count="1">
+        <n v="2016"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Week].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="4" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Время].[Hierarchy].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="4" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Stores].[Store Name]" caption="Store Name" attribute="1" defaultMemberUniqueName="[Stores].[Store Name].[All]" allUniqueName="[Stores].[Store Name].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Times].[Date].[All]" allUniqueName="[Times].[Date].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Date Name]" caption="Date Name" attribute="1" time="1" defaultMemberUniqueName="[Times].[Date Name].[All]" allUniqueName="[Times].[Date Name].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Times].[Day].[All]" allUniqueName="[Times].[Day].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Day Of Week]" caption="Day Of Week" attribute="1" time="1" defaultMemberUniqueName="[Times].[Day Of Week].[All]" allUniqueName="[Times].[Day Of Week].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Day Of Week Num]" caption="Day Of Week Num" attribute="1" time="1" defaultMemberUniqueName="[Times].[Day Of Week Num].[All]" allUniqueName="[Times].[Day Of Week Num].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Month]" caption="Month" attribute="1" time="1" defaultMemberUniqueName="[Times].[Month].[All]" allUniqueName="[Times].[Month].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Month Num]" caption="Month Num" attribute="1" time="1" defaultMemberUniqueName="[Times].[Month Num].[All]" allUniqueName="[Times].[Month Num].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Times].[Week].[All]" allUniqueName="[Times].[Week].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Times].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Times].[Year].[All]" allUniqueName="[Times].[Year].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tovars].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Tovars].[Brand].[All]" allUniqueName="[Tovars].[Brand].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tovars].[Cat 1]" caption="Cat 1" attribute="1" defaultMemberUniqueName="[Tovars].[Cat 1].[All]" allUniqueName="[Tovars].[Cat 1].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tovars].[Cat 2]" caption="Cat 2" attribute="1" defaultMemberUniqueName="[Tovars].[Cat 2].[All]" allUniqueName="[Tovars].[Cat 2].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tovars].[Cat 3]" caption="Cat 3" attribute="1" defaultMemberUniqueName="[Tovars].[Cat 3].[All]" allUniqueName="[Tovars].[Cat 3].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tovars].[Cat 4]" caption="Cat 4" attribute="1" defaultMemberUniqueName="[Tovars].[Cat 4].[All]" allUniqueName="[Tovars].[Cat 4].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tovars].[Tovar Name]" caption="Tovar Name" attribute="1" defaultMemberUniqueName="[Tovars].[Tovar Name].[All]" allUniqueName="[Tovars].[Tovar Name].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Units].[Unit Name]" caption="Unit Name" attribute="1" defaultMemberUniqueName="[Units].[Unit Name].[All]" allUniqueName="[Units].[Unit Name].[All]" dimensionUniqueName="[Units]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Stores].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Stores].[ID].[All]" allUniqueName="[Stores].[ID].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Times].[Id]" caption="Id" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Times].[Id].[All]" allUniqueName="[Times].[Id].[All]" dimensionUniqueName="[Times]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tovars].[Id]" caption="Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tovars].[Id].[All]" allUniqueName="[Tovars].[Id].[All]" dimensionUniqueName="[Tovars]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Units].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Units].[ID].[All]" allUniqueName="[Units].[ID].[All]" dimensionUniqueName="[Units]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity Sale]" caption="Quantity Sale" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
+  <cacheHierarchies count="26">
+    <cacheHierarchy uniqueName="[Время].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Время].[Date].[All]" allUniqueName="[Время].[Date].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Date Name]" caption="Date Name" attribute="1" time="1" defaultMemberUniqueName="[Время].[Date Name].[All]" allUniqueName="[Время].[Date Name].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Время].[Day].[All]" allUniqueName="[Время].[Day].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Day Of Week]" caption="Day Of Week" attribute="1" time="1" defaultMemberUniqueName="[Время].[Day Of Week].[All]" allUniqueName="[Время].[Day Of Week].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Время].[Hierarchy].[All]" allUniqueName="[Время].[Hierarchy].[All]" dimensionUniqueName="[Время]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
         <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Amount Sale]" caption="Amount Sale" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
         <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Quantity Order]" caption="Quantity Order" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="4"/>
+    <cacheHierarchy uniqueName="[Время].[Month]" caption="Month" attribute="1" time="1" defaultMemberUniqueName="[Время].[Month].[All]" allUniqueName="[Время].[Month].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Время].[Week].[All]" allUniqueName="[Время].[Week].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Время].[Year].[All]" allUniqueName="[Время].[Year].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Магазины].[Магазин]" caption="Магазин" attribute="1" defaultMemberUniqueName="[Магазины].[Магазин].[All]" allUniqueName="[Магазины].[Магазин].[All]" dimensionUniqueName="[Магазины]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Подразделения].[Подразделение]" caption="Подразделение" attribute="1" defaultMemberUniqueName="[Подразделения].[Подразделение].[All]" allUniqueName="[Подразделения].[Подразделение].[All]" dimensionUniqueName="[Подразделения]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Amount Order]" caption="Amount Order" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="6"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sales Fact Count]" caption="Sales Fact Count" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Quantity Stock]" caption="Quantity Stock" measure="1" displayFolder="" measureGroup="Stock Fact" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Товары].[Категория]" caption="Категория" defaultMemberUniqueName="[Товары].[Категория].[All]" allUniqueName="[Товары].[Категория].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Товары].[Производитель]" caption="Производитель" attribute="1" defaultMemberUniqueName="[Товары].[Производитель].[All]" allUniqueName="[Товары].[Производитель].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Товары].[Товар]" caption="Товар" attribute="1" defaultMemberUniqueName="[Товары].[Товар].[All]" allUniqueName="[Товары].[Товар].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Id]" caption="Id" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Время].[Id].[All]" allUniqueName="[Время].[Id].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Магазины].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Магазины].[ID].[All]" allUniqueName="[Магазины].[ID].[All]" dimensionUniqueName="[Магазины]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Подразделения].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Подразделения].[ID].[All]" allUniqueName="[Подразделения].[ID].[All]" dimensionUniqueName="[Подразделения]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Cat 1]" caption="Cat 1" attribute="1" defaultMemberUniqueName="[Товары].[Cat 1].[All]" allUniqueName="[Товары].[Cat 1].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Cat 2]" caption="Cat 2" attribute="1" defaultMemberUniqueName="[Товары].[Cat 2].[All]" allUniqueName="[Товары].[Cat 2].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Cat 3]" caption="Cat 3" attribute="1" defaultMemberUniqueName="[Товары].[Cat 3].[All]" allUniqueName="[Товары].[Cat 3].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Cat 4]" caption="Cat 4" attribute="1" defaultMemberUniqueName="[Товары].[Cat 4].[All]" allUniqueName="[Товары].[Cat 4].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Id]" caption="Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Товары].[Id].[All]" allUniqueName="[Товары].[Id].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Кол-во продажи]" caption="Кол-во продажи" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Сумма продажи]" caption="Сумма продажи" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Кол-во заказа]" caption="Кол-во заказа" measure="1" displayFolder="" measureGroup="Продажи" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Stock Fact Count]" caption="Stock Fact Count" measure="1" displayFolder="" measureGroup="Stock Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма заказа]" caption="Сумма заказа" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Остаток]" caption="Остаток" measure="1" displayFolder="" measureGroup="Остатки" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Stores" uniqueName="[Stores]" caption="Stores"/>
-    <dimension name="Times" uniqueName="[Times]" caption="Times"/>
-    <dimension name="Tovars" uniqueName="[Tovars]" caption="Tovars"/>
-    <dimension name="Units" uniqueName="[Units]" caption="Units"/>
+    <dimension name="Время" uniqueName="[Время]" caption="Время"/>
+    <dimension name="Магазины" uniqueName="[Магазины]" caption="Магазины"/>
+    <dimension name="Подразделения" uniqueName="[Подразделения]" caption="Подразделения"/>
+    <dimension name="Товары" uniqueName="[Товары]" caption="Товары"/>
   </dimensions>
   <measureGroups count="2">
-    <measureGroup name="Sales Fact" caption="Sales Fact"/>
-    <measureGroup name="Stock Fact" caption="Stock Fact"/>
+    <measureGroup name="Остатки" caption="Остатки"/>
+    <measureGroup name="Продажи" caption="Продажи"/>
   </measureGroups>
   <maps count="6">
+    <map measureGroup="0" dimension="1"/>
     <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
     <map measureGroup="0" dimension="4"/>
     <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
     <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="4"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -212,79 +313,164 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:G2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица15" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:K14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="2">
+        <item c="1" x="0" d="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" dataSourceSort="1">
+      <items count="9">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="7">
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
     </i>
-    <i i="5">
+    <i>
       <x v="5"/>
     </i>
-    <i i="6">
+    <i>
       <x v="6"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="7">
+  <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
-    <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField fld="2" baseField="0" baseItem="0"/>
-    <dataField fld="3" baseField="0" baseItem="0"/>
-    <dataField fld="4" baseField="0" baseItem="0"/>
-    <dataField fld="5" baseField="0" baseItem="0"/>
-    <dataField fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  <pivotHierarchies count="26">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="3">
+        <mp field="6"/>
+        <mp field="7"/>
+        <mp field="8"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -292,8 +478,11 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="9"/>
+  </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
+    <colHierarchyUsage hierarchyUsage="4"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -566,65 +755,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="36" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>130</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
         <v>49</v>
       </c>
-      <c r="F2" s="1">
-        <v>1759889</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1578299</v>
+      <c r="K14" s="1">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/olap/Книга1.xlsx
+++ b/olap/Книга1.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="145" r:id="rId2"/>
+    <pivotCache cacheId="24" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,10 +104,10 @@
     <t>Электронный рай 33-7</t>
   </si>
   <si>
-    <t>Кол-во заказа</t>
-  </si>
-  <si>
     <t>2016 Итог</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
   </si>
 </sst>
 </file>
@@ -169,11 +169,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="KID" refreshedDate="42624.990403009258" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Ivan Kalinin" refreshedDate="42634.568232407408" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
-    <cacheField name="[Measures].[Кол-во заказа]" caption="Кол-во заказа" numFmtId="0" hierarchy="23" level="32767"/>
-    <cacheField name="[Подразделения].[Подразделение].[Подразделение]" caption="Подразделение" numFmtId="0" hierarchy="9" level="1">
+    <cacheField name="[Подразделения].[Подразделение].[Подразделение]" caption="Подразделение" numFmtId="0" hierarchy="8" level="1">
       <sharedItems count="10">
         <s v="[Подразделения].[Подразделение].&amp;[Владимирский тракт]" c="Владимирский тракт"/>
         <s v="[Подразделения].[Подразделение].&amp;[Горбушкин Двор]" c="Горбушкин Двор"/>
@@ -187,6 +186,7 @@
         <s v="[Подразделения].[Подразделение].&amp;[Электронный рай 33-7]" c="Электронный рай 33-7"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Measures].[Кол-во]" caption="Кол-во" numFmtId="0" hierarchy="26" level="32767"/>
     <cacheField name="[Время].[Hierarchy].[Year]" caption="Year" numFmtId="0" hierarchy="4" level="1">
       <sharedItems count="1">
         <s v="[Время].[Hierarchy].[Year].&amp;[2016]" c="2016"/>
@@ -239,7 +239,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="26">
+  <cacheHierarchies count="27">
     <cacheHierarchy uniqueName="[Время].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Время].[Date].[All]" allUniqueName="[Время].[Date].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Время].[Date Name]" caption="Date Name" attribute="1" time="1" defaultMemberUniqueName="[Время].[Date Name].[All]" allUniqueName="[Время].[Date Name].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Время].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Время].[Day].[All]" allUniqueName="[Время].[Day].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
@@ -256,53 +256,61 @@
     <cacheHierarchy uniqueName="[Время].[Month]" caption="Month" attribute="1" time="1" defaultMemberUniqueName="[Время].[Month].[All]" allUniqueName="[Время].[Month].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Время].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Время].[Week].[All]" allUniqueName="[Время].[Week].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Время].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Время].[Year].[All]" allUniqueName="[Время].[Year].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Магазины].[Магазин]" caption="Магазин" attribute="1" defaultMemberUniqueName="[Магазины].[Магазин].[All]" allUniqueName="[Магазины].[Магазин].[All]" dimensionUniqueName="[Магазины]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Подразделения].[Подразделение]" caption="Подразделение" attribute="1" defaultMemberUniqueName="[Подразделения].[Подразделение].[All]" allUniqueName="[Подразделения].[Подразделение].[All]" dimensionUniqueName="[Подразделения]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Склады].[Склад]" caption="Склад" attribute="1" defaultMemberUniqueName="[Склады].[Склад].[All]" allUniqueName="[Склады].[Склад].[All]" dimensionUniqueName="[Склады]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Статусы].[Статус документа]" caption="Статус документа" attribute="1" defaultMemberUniqueName="[Статусы].[Статус документа].[All]" allUniqueName="[Статусы].[Статус документа].[All]" dimensionUniqueName="[Статусы]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Товары].[Категории]" caption="Категории" defaultMemberUniqueName="[Товары].[Категории].[All]" allUniqueName="[Товары].[Категории].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Товары].[Производитель]" caption="Производитель" attribute="1" defaultMemberUniqueName="[Товары].[Производитель].[All]" allUniqueName="[Товары].[Производитель].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Товары].[Товар]" caption="Товар" attribute="1" defaultMemberUniqueName="[Товары].[Товар].[All]" allUniqueName="[Товары].[Товар].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Время].[Id]" caption="Id" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Время].[Id].[All]" allUniqueName="[Время].[Id].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Подразделения].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Подразделения].[ID].[All]" allUniqueName="[Подразделения].[ID].[All]" dimensionUniqueName="[Подразделения]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Склады].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Склады].[ID].[All]" allUniqueName="[Склады].[ID].[All]" dimensionUniqueName="[Склады]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Статусы].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Статусы].[ID].[All]" allUniqueName="[Статусы].[ID].[All]" dimensionUniqueName="[Статусы]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Id]" caption="Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Товары].[Id].[All]" allUniqueName="[Товары].[Id].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Ур 1]" caption="Ур 1" attribute="1" defaultMemberUniqueName="[Товары].[Ур 1].[All]" allUniqueName="[Товары].[Ур 1].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Ур 2]" caption="Ур 2" attribute="1" defaultMemberUniqueName="[Товары].[Ур 2].[All]" allUniqueName="[Товары].[Ур 2].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Ур 3]" caption="Ур 3" attribute="1" defaultMemberUniqueName="[Товары].[Ур 3].[All]" allUniqueName="[Товары].[Ур 3].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Товары].[Ур 4]" caption="Ур 4" attribute="1" defaultMemberUniqueName="[Товары].[Ур 4].[All]" allUniqueName="[Товары].[Ур 4].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Кол-во продажи]" caption="Кол-во продажи" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Сумма продажи]" caption="Сумма продажи" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Остаток]" caption="Остаток" measure="1" displayFolder="" measureGroup="Остатки" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Кол-во]" caption="Кол-во" measure="1" displayFolder="" measureGroup="Заказы" count="0" oneField="1">
+      <fieldsUsage count="1">
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Товары].[Категория]" caption="Категория" defaultMemberUniqueName="[Товары].[Категория].[All]" allUniqueName="[Товары].[Категория].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Товары].[Производитель]" caption="Производитель" attribute="1" defaultMemberUniqueName="[Товары].[Производитель].[All]" allUniqueName="[Товары].[Производитель].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Товары].[Товар]" caption="Товар" attribute="1" defaultMemberUniqueName="[Товары].[Товар].[All]" allUniqueName="[Товары].[Товар].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Время].[Id]" caption="Id" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Время].[Id].[All]" allUniqueName="[Время].[Id].[All]" dimensionUniqueName="[Время]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Магазины].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Магазины].[ID].[All]" allUniqueName="[Магазины].[ID].[All]" dimensionUniqueName="[Магазины]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Подразделения].[ID]" caption="ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Подразделения].[ID].[All]" allUniqueName="[Подразделения].[ID].[All]" dimensionUniqueName="[Подразделения]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Товары].[Cat 1]" caption="Cat 1" attribute="1" defaultMemberUniqueName="[Товары].[Cat 1].[All]" allUniqueName="[Товары].[Cat 1].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Товары].[Cat 2]" caption="Cat 2" attribute="1" defaultMemberUniqueName="[Товары].[Cat 2].[All]" allUniqueName="[Товары].[Cat 2].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Товары].[Cat 3]" caption="Cat 3" attribute="1" defaultMemberUniqueName="[Товары].[Cat 3].[All]" allUniqueName="[Товары].[Cat 3].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Товары].[Cat 4]" caption="Cat 4" attribute="1" defaultMemberUniqueName="[Товары].[Cat 4].[All]" allUniqueName="[Товары].[Cat 4].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Товары].[Id]" caption="Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Товары].[Id].[All]" allUniqueName="[Товары].[Id].[All]" dimensionUniqueName="[Товары]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Кол-во продажи]" caption="Кол-во продажи" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Сумма продажи]" caption="Сумма продажи" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Кол-во заказа]" caption="Кол-во заказа" measure="1" displayFolder="" measureGroup="Продажи" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма заказа]" caption="Сумма заказа" measure="1" displayFolder="" measureGroup="Продажи" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Остаток]" caption="Остаток" measure="1" displayFolder="" measureGroup="Остатки" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="5">
+  <dimensions count="6">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Время" uniqueName="[Время]" caption="Время"/>
-    <dimension name="Магазины" uniqueName="[Магазины]" caption="Магазины"/>
     <dimension name="Подразделения" uniqueName="[Подразделения]" caption="Подразделения"/>
+    <dimension name="Склады" uniqueName="[Склады]" caption="Склады"/>
+    <dimension name="Статусы" uniqueName="[Статусы]" caption="Статусы"/>
     <dimension name="Товары" uniqueName="[Товары]" caption="Товары"/>
   </dimensions>
-  <measureGroups count="2">
+  <measureGroups count="3">
+    <measureGroup name="Заказы" caption="Заказы"/>
     <measureGroup name="Остатки" caption="Остатки"/>
     <measureGroup name="Продажи" caption="Продажи"/>
   </measureGroups>
-  <maps count="6">
+  <maps count="11">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="0" dimension="2"/>
     <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
     <map measureGroup="1" dimension="1"/>
     <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="4"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="4"/>
+    <map measureGroup="2" dimension="5"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -313,10 +321,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица15" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:K14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица15" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:K16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="11">
         <item x="0"/>
@@ -332,6 +339,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="2">
         <item c="1" x="0" d="1"/>
@@ -366,7 +374,7 @@
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="11">
     <i>
@@ -441,9 +449,9 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="26">
+  <pivotHierarchies count="27">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -471,7 +479,8 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -479,7 +488,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="9"/>
+    <rowHierarchyUsage hierarchyUsage="8"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="4"/>
@@ -755,16 +764,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
@@ -777,357 +786,357 @@
     <col min="37" max="37" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K7" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
       <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1">
         <v>6</v>
       </c>
       <c r="J14" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1">
-        <v>49</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>100</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
